--- a/data/glucose/fingerstick.xlsx
+++ b/data/glucose/fingerstick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristianlian/R/ribose_rna/data/glucose/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristili\R\ribose-paper\data\glucose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C93A168-548E-A044-A0A9-B544E0530976}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E60716B-8E8F-4018-BD7C-3D62434023D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4965D424-3668-A246-8E22-DC40EB08FD9E}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="21600" windowHeight="11040" xr2:uid="{4965D424-3668-A246-8E22-DC40EB08FD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -120,10 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,7 +143,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -440,17 +441,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77056ED4-E251-D342-B487-7CFC87EF20C8}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -478,7 +479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -507,7 +508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
@@ -536,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>101</v>
       </c>
@@ -565,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
@@ -594,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>101</v>
       </c>
@@ -623,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>101</v>
       </c>
@@ -652,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>101</v>
       </c>
@@ -681,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>101</v>
       </c>
@@ -710,7 +711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>101</v>
       </c>
@@ -739,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>101</v>
       </c>
@@ -768,7 +769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -797,7 +798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>101</v>
       </c>
@@ -826,7 +827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>101</v>
       </c>
@@ -855,7 +856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>101</v>
       </c>
@@ -884,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>101</v>
       </c>
@@ -913,7 +914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>102</v>
       </c>
@@ -942,7 +943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>102</v>
       </c>
@@ -971,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>102</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>102</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>102</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>102</v>
       </c>
@@ -1087,7 +1088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>102</v>
       </c>
@@ -1116,7 +1117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>102</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>102</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>102</v>
       </c>
@@ -1203,7 +1204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>102</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>102</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>102</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>102</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>103</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>103</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>103</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>103</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>103</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>103</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>103</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>103</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>103</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>103</v>
       </c>
@@ -1667,7 +1668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>103</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>103</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>103</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>103</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>105</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>105</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>105</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>105</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>105</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>105</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>105</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>105</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>105</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>105</v>
       </c>
@@ -2073,7 +2074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>105</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>105</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>105</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>105</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>105</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>106</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>106</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>106</v>
       </c>
@@ -2305,7 +2306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>106</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>106</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>106</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>106</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>106</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>106</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>106</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>106</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>106</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>106</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>106</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>106</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>107</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>107</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>107</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>107</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>107</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>107</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>107</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>107</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>107</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>107</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>107</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>107</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>107</v>
       </c>
@@ -3030,7 +3031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>107</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>107</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>108</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>108</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>108</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>108</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>108</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>108</v>
       </c>
@@ -3291,7 +3292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>108</v>
       </c>
@@ -3320,7 +3321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>108</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>108</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>108</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>108</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>108</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>108</v>
       </c>
@@ -3494,7 +3495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>108</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>109</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>109</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3668,7 +3669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>109</v>
       </c>
@@ -3755,7 +3756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>109</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>109</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>109</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>109</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>109</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>109</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>109</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>112</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>112</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>112</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>112</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>112</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>112</v>
       </c>
@@ -4132,7 +4133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>112</v>
       </c>
@@ -4161,7 +4162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>112</v>
       </c>
@@ -4190,7 +4191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>112</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>112</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>112</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>112</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>112</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>112</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>112</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>113</v>
       </c>
@@ -4422,7 +4423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>113</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>113</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>113</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>113</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>113</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>113</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>113</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>113</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>113</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>113</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>113</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>113</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>113</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>113</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>114</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>114</v>
       </c>
@@ -4886,7 +4887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>114</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>114</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>114</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>114</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>114</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>114</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>114</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>114</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>114</v>
       </c>
@@ -5147,7 +5148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>114</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>114</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>114</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>114</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>115</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>115</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>115</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>115</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>115</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>115</v>
       </c>
@@ -5437,7 +5438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>115</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>115</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>115</v>
       </c>
@@ -5524,7 +5525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>115</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>115</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>115</v>
       </c>
@@ -5611,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>115</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>115</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>115</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>116</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>116</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>116</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>116</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>116</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>116</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>116</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>116</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>116</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>116</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>116</v>
       </c>
@@ -6017,7 +6018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>116</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>116</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>116</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>116</v>
       </c>
@@ -6135,5 +6136,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/glucose/fingerstick.xlsx
+++ b/data/glucose/fingerstick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristili\R\ribose-paper\data\glucose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\OneDrive\Documents\ribose-paper\data\glucose\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E60716B-8E8F-4018-BD7C-3D62434023D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BC9B8A-FA7B-4B33-B678-7F22F3EECDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="1830" windowWidth="21600" windowHeight="11040" xr2:uid="{4965D424-3668-A246-8E22-DC40EB08FD9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4965D424-3668-A246-8E22-DC40EB08FD9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="17">
   <si>
     <t>subject</t>
   </si>
@@ -120,11 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77056ED4-E251-D342-B487-7CFC87EF20C8}">
   <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,7 +450,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -524,11 +523,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
+      <c r="F3">
+        <v>3.56</v>
+      </c>
+      <c r="G3">
+        <v>2.38</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -727,11 +726,11 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
+      <c r="F10">
+        <v>3.56</v>
+      </c>
+      <c r="G10">
+        <v>2.38</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -959,11 +958,11 @@
       <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>8</v>
+      <c r="F18">
+        <v>4.21</v>
+      </c>
+      <c r="G18">
+        <v>1.24</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1162,11 +1161,11 @@
       <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>8</v>
+      <c r="F25">
+        <v>4.21</v>
+      </c>
+      <c r="G25">
+        <v>1.24</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1394,11 +1393,11 @@
       <c r="E33" t="s">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>8</v>
+      <c r="F33">
+        <v>3.6</v>
+      </c>
+      <c r="G33">
+        <v>2.23</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1597,11 +1596,11 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" t="s">
-        <v>8</v>
+      <c r="F40">
+        <v>3.6</v>
+      </c>
+      <c r="G40">
+        <v>2.23</v>
       </c>
       <c r="H40" t="s">
         <v>9</v>
